--- a/data/trans_camb/P24_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_6_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,76</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,8</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,7</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,66</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,86</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,34</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>17,01</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 2,09</t>
+          <t>-16,51; 8,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 12,89</t>
+          <t>0,51; 23,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 15,25</t>
+          <t>-0,34; 22,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 22,54</t>
+          <t>-3,76; 26,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 10,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 13,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 11,87</t>
+          <t>-3,12; 21,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 24,19</t>
+          <t>2,13; 23,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 4,66</t>
+          <t>1,03; 21,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,4</t>
+          <t>4,84; 28,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 11,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 21,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 12,81</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 20,74</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 19,0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 27,03</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,94%</t>
+          <t>-13,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>56,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38,21%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>33,68%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>50,53%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 8,87</t>
+          <t>-52,58; 48,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 50,81</t>
+          <t>0,13; 136,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 62,75</t>
+          <t>-2,12; 136,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,09; 93,92</t>
+          <t>-6,94; 147,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 24,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 32,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 27,4</t>
+          <t>-6,4; 63,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 57,0</t>
+          <t>4,36; 70,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 12,64</t>
+          <t>2,09; 63,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 32,79</t>
+          <t>10,28; 85,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 32,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,69; 62,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 44,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 76,12</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 68,35</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 92,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,04</t>
+          <t>16,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>12,3</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,55</t>
+          <t>-3,74; 8,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,78</t>
+          <t>-3,16; 9,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 10,77</t>
+          <t>0,36; 12,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 17,13</t>
+          <t>8,59; 24,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 7,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 8,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 12,58</t>
+          <t>-8,16; 7,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 19,65</t>
+          <t>-4,19; 9,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 5,04</t>
+          <t>-1,57; 12,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,53</t>
+          <t>0,54; 16,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 6,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 7,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 9,61</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 17,95</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>109,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>50,12%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 41,0</t>
+          <t>-20,4; 75,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 51,62</t>
+          <t>-17,9; 81,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 78,11</t>
+          <t>0,03; 98,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,59; 125,36</t>
+          <t>46,32; 195,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 25,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 30,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 44,29</t>
+          <t>-21,75; 23,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,48; 68,02</t>
+          <t>-11,07; 32,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 23,29</t>
+          <t>-4,25; 41,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 31,18</t>
+          <t>1,52; 54,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 47,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,72; 75,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 31,0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 34,78</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 44,36</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>26,17; 82,51</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,23</t>
+          <t>-5,4; 9,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 6,43</t>
+          <t>-5,88; 6,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 15,13</t>
+          <t>0,48; 13,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 12,95</t>
+          <t>-2,92; 12,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 4,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 3,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,49</t>
+          <t>-7,24; 8,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,47</t>
+          <t>-9,5; 4,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 4,06</t>
+          <t>-7,85; 6,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,63</t>
+          <t>-7,32; 7,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 9,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 5,8</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 3,35</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 7,96</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 6,99</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>65,78%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 53,28</t>
+          <t>-26,28; 77,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 55,05</t>
+          <t>-28,86; 59,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,21; 128,65</t>
+          <t>1,61; 117,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 103,12</t>
+          <t>-16,58; 100,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 16,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 32,92</t>
+          <t>-23,11; 34,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 35,4</t>
+          <t>-28,96; 21,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 22,84</t>
+          <t>-22,47; 28,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 20,56</t>
+          <t>-23,33; 31,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 52,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 53,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-19,5; 29,31</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-25,2; 17,76</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 40,79</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 36,56</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,39</t>
+          <t>-6,12; 3,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,93</t>
+          <t>-3,9; 8,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,0</t>
+          <t>1,06; 12,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,62</t>
+          <t>-5,81; 5,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,46</t>
+          <t>-3,79; 8,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,82</t>
+          <t>0,83; 13,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 2,65</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 6,14</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 10,87</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-4,58%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 14,63</t>
+          <t>-32,32; 24,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 44,27</t>
+          <t>-21,3; 49,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,75; 71,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,86; 105,74</t>
+          <t>5,76; 78,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 14,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 19,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,67; 27,3</t>
+          <t>-17,07; 17,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,64; 59,38</t>
+          <t>-11,14; 28,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 11,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 24,32</t>
+          <t>2,53; 43,39</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,75; 35,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>39,82; 67,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-17,95; 10,96</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; 25,26</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 44,69</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,01</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8,34</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>9,07</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 3,43</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 6,56</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 11,08</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 13,82</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 4,7</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 6,93</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 9,48</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 12,29</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 3,07</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 5,78</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 9,21</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 11,49</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18,8%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>44,13%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>56,2%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-14,94; 21,14</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 40,38</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 69,71</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>32,02; 85,93</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 15,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 22,47</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 30,62</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 39,7</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 12,81</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 24,13</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 38,37</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 47,8</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
